--- a/shtatka.xlsx
+++ b/shtatka.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ШТАТЛАР ЖАДВАЛИ</t>
   </si>
@@ -56,13 +56,45 @@
   </si>
   <si>
     <t>037</t>
+  </si>
+  <si>
+    <t>LАVOZIM</t>
+  </si>
+  <si>
+    <t>Shtat birlik-lari 
+soni</t>
+  </si>
+  <si>
+    <t>YaTS boʼyicha 
+razryad</t>
+  </si>
+  <si>
+    <t>Tarif koeffitsent</t>
+  </si>
+  <si>
+    <t>To'g'irlovchi 
+koeffitsent</t>
+  </si>
+  <si>
+    <t>Lavozimi boʼyicha 
+oylik ish xaqi</t>
+  </si>
+  <si>
+    <t>Ragʼbatlan-tirish 
+koeffitsent</t>
+  </si>
+  <si>
+    <t>Boshqa ustamalar</t>
+  </si>
+  <si>
+    <t>Jami ish xaqi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +113,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,15 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,17 +456,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +478,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -468,7 +490,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
+    <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -482,8 +504,8 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -496,7 +518,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -505,7 +527,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
+    <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -513,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
+    <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -521,12 +543,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="35" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
